--- a/Excel/device.xlsx
+++ b/Excel/device.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -73,62 +73,62 @@
     <t>Back to Getting Started.</t>
   </si>
   <si>
-    <t>डिव्हाइस - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>डिव्हाइस</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>डिव्हाइस हे वास्तविक भौतिक ध्वनी डिव्हाइस आहे ज्यावरून आपण रेकॉर्ड करीत आहात (किंवा परत खेळत आहात). रेकॉर्डिंग आणि प्लेबॅक साधने एकतर प्राधान्यांच्या डिव्हाइस विभागात किंवा डिव्हाइस टूलबारमध्ये निवडली जातात. निवडलेल्या उपकरणांचे रेकॉर्डिंग आणि प्लेबॅक व्हॉल्यूम सामान्यत: मिक्सर टूलबारमध्ये समायोजित केले जाते.</t>
-  </si>
-  <si>
-    <t>विंडोजः रेकॉर्डिंग आणि प्लेबॅक डिव्‍हाइसेस सामान्यत: ते रेकॉर्डिंग किंवा प्लेबॅक प्रकार म्हणून दर्शविल्या जातात (उदाहरणार्थ, "मायक्रोफोन" किंवा "स्पीकर्स") त्यानंतर इनपुट किंवा आउटपुटशी संबंधित असलेल्या डिव्हाइसद्वारे. उदाहरणे अशी दिसू शकली:</t>
-  </si>
-  <si>
-    <t>मायक्रोफोन (हाय डेफ ऑडिओ)</t>
-  </si>
-  <si>
     <t>स्पीकर्स (रियलटेक एचडी)</t>
   </si>
   <si>
-    <t>लाइन इन (यूएसबी ऑडिओ)</t>
-  </si>
-  <si>
     <t>याव्यतिरिक्त, तेथे "साउंड मॅपर" किंवा "प्राइमरी ड्रायव्हर" इनपुट आणि आउटपुट उपकरणे आहेत जी आवाजासाठी विंडोज कंट्रोल पॅनेलमध्ये सध्या डिव्हाइस म्हणून डीफॉल्ट म्हणून सेट केलेली नेहमीच असते.</t>
   </si>
   <si>
-    <t>बरेच नवीन विंडोज संगणक केवळ मायक्रोफोन रेकॉर्डिंग डिव्हाइस सक्षम केलेले येतात. ध्वनी उपकरणाद्वारे केलेली इतर कोणतीही प्लेबॅक साधने, जसे की "स्टीरिओ मिक्स", "वेव्ह आउट" किंवा संगणक प्लेबॅक रेकॉर्ड करण्यासाठी "बेरीज", विंडोज कंट्रोल पॅनेलमधील "साउंड" मध्ये सक्षम केलेले असणे आवश्यक आहे. अधिक मदतीसाठी मी विंडोजमध्ये रेकॉर्ड का करू शकत नाही ते पहा.</t>
-  </si>
-  <si>
-    <t>मॅक: अंगभूत ऑडिओचे प्लेबॅक डिव्हाइस सामान्यपणे "अंगभूत आउटपुट" म्हणून दिसते. मॅककडे दुसरा डिजिटल इनपुट नसल्यास रेकॉर्डिंग डिव्हाइस सामान्यत: "अंगभूत इनपुट" म्हणून दिसून येते. एक यूएसबी ऑडिओ डिव्हाइस ज्याचे इनपुट वेगळे असते त्या डिव्हाइसचे नाव दिले पाहिजे.</t>
-  </si>
-  <si>
-    <t>लिनक्सः "डीफॉल्ट" रेकॉर्डिंग आणि प्लेबॅक डिव्हाइस निवडणे चांगले. अलसॅमिकर किंवा पल्सौडियो व्हॉल्यूम कंट्रोल (मशीनवर जेथे पल्सौडियो डीफॉल्ट ऑडिओ सिस्टम आहे) मध्ये आवश्यक असल्यास रेकॉर्डिंग स्रोत निवडले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>बर्‍याच यूएसबी किंवा फायरवायर रेकॉर्डिंग डिव्हाइस (उदाहरणार्थ यूएसबी टर्नटेबल किंवा बरेच यूएसबी इंटरफेस) ऑपरेटिंग सिस्टमवर रेकॉर्डिंग डिव्हाइसेसची निवड सादर करत नाहीत. असे डिव्हाइस फक्त डिव्हाइसचे नाव म्हणून दिसतील, उदाहरणार्थ "यूएसबी ऑडिओ कोडेक" (किंवा विंडोज वर, डिव्हाइस "मायक्रोफोन" नसले तरीही काहीवेळा "मायक्रोफोन (यूएसबी ऑडिओ कोडेक))".</t>
-  </si>
-  <si>
     <t>परत</t>
   </si>
   <si>
-    <t>रेकॉर्डिंग ऑडिओ</t>
-  </si>
-  <si>
-    <t>प्रारंभ करण्याकडे परत.</t>
+    <t>साधन</t>
+  </si>
+  <si>
+    <t>साधन - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोध</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>साधन हे वास्तविक भौतिक ध्वनी साधन आहे ज्यावरून आपण ध्वनिमुद्रण करीत आहोत (किंवा परत खेळत आहोत). ध्वनिमुद्रण आणि प्लेबॅक साधने एकतर प्राधान्यांच्या साधन विभागात किंवा साधन टूलबारमध्ये निवडली जातात. निवडलेल्या उपकरणांचे ध्वनिमुद्रण आणि प्लेबॅक आवाज सामान्यत: मिक्सर साधनपट्टीमध्ये समायोजित केले जाते.</t>
+  </si>
+  <si>
+    <t>विंडोजः ध्वनिमुद्रण आणि प्लेबॅक डिव्‍हाइसेस सामान्यत: ते ध्वनिमुद्रण किंवा प्लेबॅक प्रकार म्हणून दर्शविल्या जातात (उदाहरणार्थ, "मायक्रोफोन" किंवा "स्पीकर्स") त्यानंतर इनपुट किंवा आउटपुटशी संबंधित असलेल्या साधनाद्वारे. उदाहरणे अशी दिसू शकली:</t>
+  </si>
+  <si>
+    <t>मायक्रोफोन (हाय डेफ ध्वनी)</t>
+  </si>
+  <si>
+    <t>लाइन इन (यूएसबी ध्वनी)</t>
+  </si>
+  <si>
+    <t>बरेच नवीन विंडोज संगणक केवळ मायक्रोफोन ध्वनिमुद्रण साधन सक्षम केलेले येतात. ध्वनी उपकरणाद्वारे केलेली इतर कोणतीही प्लेबॅक साधने, जसे की "स्टीरिओ मिक्स", "वेव्ह आउट" किंवा संगणक प्लेबॅक ध्वनिमुद्रण करण्यासाठी "बेरीज", विंडोज कंट्रोल पॅनेलमधील "ध्वनी" मध्ये सक्षम केलेले असणे आवश्यक आहे. अधिक मदतीसाठी मी विंडोजमध्ये ध्वनिमुद्रण का करू शकत नाही ते पहा.</t>
+  </si>
+  <si>
+    <t>मॅक: अंगभूत ध्वनीचे प्लेबॅक साधन सामान्यपणे "अंगभूत आउटपुट" म्हणून दिसते. मॅककडे दुसरा डिजिटल इनपुट नसल्यास ध्वनिमुद्रण साधन सामान्यत: "अंगभूत इनपुट" म्हणून दिसून येते. एक यूएसबी ध्वनी साधन ज्याचे इनपुट वेगळे असते त्या साधनाचे नाव दिले पाहिजे.</t>
+  </si>
+  <si>
+    <t>लिनक्सः "डीफॉल्ट" ध्वनिमुद्रण आणि प्लेबॅक साधन निवडणे चांगले. अलसॅमिकर किंवा पल्सौडियो व्हॉल्यूम कंट्रोल (मशीनवर जेथे पल्सौडियो डीफॉल्ट ध्वनी प्रणाली आहे) मध्ये आवश्यक असल्यास ध्वनिमुद्रण स्रोत निवडले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>बर्‍याच यूएसबी किंवा फायरवायर ध्वनिमुद्रण साधन (उदाहरणार्थ यूएसबी टर्नटेबल किंवा बरेच यूएसबी मुखपृष्ठ) ऑपरेटिंग सिस्टमवर ध्वनिमुद्रण साधनाची निवड सादर करत नाहीत. असे साधन फक्त साधनाचे नाव म्हणून दिसतील, उदाहरणार्थ "यूएसबी ध्वनी कोडेक" (किंवा विंडोज वर, साधन "मायक्रोफोन" नसले तरीही काहीवेळा "मायक्रोफोन (यूएसबी ध्वनी कोडेक))".</t>
+  </si>
+  <si>
+    <t>ध्वनिमुद्रण</t>
+  </si>
+  <si>
+    <t>प्रारंभ करीत आहे</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,11 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,9 +490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -500,8 +515,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -544,8 +559,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -589,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -610,8 +625,8 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -633,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -643,8 +658,8 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -655,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -682,5 +697,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>